--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail11 Features.xlsx
@@ -5865,7 +5865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5876,29 +5876,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5919,115 +5917,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6044,72 +6032,66 @@
         <v>9.993805879006996e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.395107952580657</v>
+        <v>5.008297909082085e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.753173696969998</v>
+        <v>5.061557884108876e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.008297909082085e-06</v>
+        <v>-0.07973292780354632</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.061557884108876e-06</v>
+        <v>0.1648503554019604</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.07973292780354632</v>
+        <v>0.03344890177811311</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1648503554019604</v>
+        <v>1.636541151394476</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03344890177811311</v>
+        <v>1.513645020643774</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.570860694483504</v>
+        <v>4.259562746848701</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.513645020643774</v>
+        <v>3.304628285830919e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.259562746848701</v>
+        <v>12487596.28194067</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.304628285830919e-14</v>
+        <v>8.490352214235765e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>12487596.28194067</v>
+        <v>5.153239361467767</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.490352214235765e-06</v>
+        <v>0.0001325228684784841</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.153239361467767</v>
+        <v>9.292837872417746</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001325228684784841</v>
+        <v>1.201360469897275</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.292837872417746</v>
+        <v>0.01144425558274269</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.201360469897275</v>
+        <v>2.851403799260454</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01144425558274269</v>
+        <v>0.947821207893923</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.851403799260454</v>
+        <v>1.864842621042424</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.947821207893923</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.864842621042424</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1886403600243499</v>
       </c>
     </row>
@@ -6124,72 +6106,66 @@
         <v>8.889563358920344e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.127377789974986</v>
+        <v>4.020347890258647e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.4902983336806321</v>
+        <v>4.990437893918765e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.020347890258647e-06</v>
+        <v>-0.07151302087265603</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.990437893918765e-06</v>
+        <v>0.1283216022411585</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07151302087265603</v>
+        <v>0.02152377051554713</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1283216022411585</v>
+        <v>1.643342279345426</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02152377051554713</v>
+        <v>1.509718997445313</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.575826769155835</v>
+        <v>4.230611364988881</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.509718997445313</v>
+        <v>3.350012231075979e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.230611364988881</v>
+        <v>12956339.41849213</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.350012231075979e-14</v>
+        <v>8.299656870002076e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>12956339.41849213</v>
+        <v>5.623556024667719</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.299656870002076e-06</v>
+        <v>0.0001312977352050923</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.623556024667719</v>
+        <v>8.859750946134413</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001312977352050923</v>
+        <v>1.235215501826699</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.859750946134413</v>
+        <v>0.01030624025495524</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.235215501826699</v>
+        <v>2.879679780784902</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01030624025495524</v>
+        <v>0.9485903910851148</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.879679780784902</v>
+        <v>1.840035020225642</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9485903910851148</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.840035020225642</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1896833577564255</v>
       </c>
     </row>
@@ -6204,72 +6180,66 @@
         <v>8.15216222882355e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.9901521261313362</v>
+        <v>3.315149263910036e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.1489164919017547</v>
+        <v>4.932894353368441e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.315149263910036e-06</v>
+        <v>-0.06417417163559823</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.932894353368441e-06</v>
+        <v>0.09448623449919212</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06417417163559823</v>
+        <v>0.01301320897718074</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.09448623449919212</v>
+        <v>1.64607246240345</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01301320897718074</v>
+        <v>1.503909092124004</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.578013011442061</v>
+        <v>4.216318802182983</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.503909092124004</v>
+        <v>3.372762604186233e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.216318802182983</v>
+        <v>12942162.96662891</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.372762604186233e-14</v>
+        <v>8.322962450402764e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>12942162.96662891</v>
+        <v>5.649363272457407</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.322962450402764e-06</v>
+        <v>0.0001280822512095281</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.649363272457407</v>
+        <v>7.554811313670154</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001280822512095281</v>
+        <v>1.319367774115063</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.554811313670154</v>
+        <v>0.007310316772194602</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.319367774115063</v>
+        <v>3.068035071026571</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007310316772194602</v>
+        <v>0.9472859443684021</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.068035071026571</v>
+        <v>1.838744849258272</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9472859443684021</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.838744849258272</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1817715055505465</v>
       </c>
     </row>
@@ -6284,72 +6254,66 @@
         <v>7.642875452060242e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.9485007575497498</v>
+        <v>2.844485503361732e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.3772368125580576</v>
+        <v>4.884546940099515e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.844485503361732e-06</v>
+        <v>-0.05893948883708686</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.884546940099515e-06</v>
+        <v>0.07032993223002583</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05893948883708686</v>
+        <v>0.008405772014177988</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07032993223002583</v>
+        <v>1.638460967524415</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.008405772014177988</v>
+        <v>1.50086824936529</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.573348124550769</v>
+        <v>4.223712003454835</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.50086824936529</v>
+        <v>3.360965545510272e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.223712003454835</v>
+        <v>13095046.67632693</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.360965545510272e-14</v>
+        <v>8.239331793103895e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>13095046.67632693</v>
+        <v>5.763392034324389</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.239331793103895e-06</v>
+        <v>0.000139426360752065</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.763392034324389</v>
+        <v>7.350790139798007</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000139426360752065</v>
+        <v>1.7366718726781</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.350790139798007</v>
+        <v>0.007533780105628086</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.7366718726781</v>
+        <v>3.12492680716372</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007533780105628086</v>
+        <v>0.9472329591453156</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.12492680716372</v>
+        <v>1.865687783053841</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9472329591453156</v>
+        <v>13</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.865687783053841</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1688937952201788</v>
       </c>
     </row>
@@ -6364,72 +6328,66 @@
         <v>7.255723558128365e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.9565701686956427</v>
+        <v>2.574208095263788e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4095390030704311</v>
+        <v>4.841717808791752e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.574208095263788e-06</v>
+        <v>-0.05670070387198579</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.841717808791752e-06</v>
+        <v>0.06133117562422095</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05670070387198579</v>
+        <v>0.006972329372302593</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06133117562422095</v>
+        <v>1.640061314615364</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.006972329372302593</v>
+        <v>1.500532011012601</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.575796482837873</v>
+        <v>4.240986364812841</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.500532011012601</v>
+        <v>3.333641575792744e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.240986364812841</v>
+        <v>13456756.7704716</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.333641575792744e-14</v>
+        <v>8.057751607121973e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>13456756.7704716</v>
+        <v>6.036701604696272</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.057751607121973e-06</v>
+        <v>0.0001337175103899682</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.036701604696272</v>
+        <v>8.507226097652323</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001337175103899682</v>
+        <v>1.280846605733514</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.507226097652323</v>
+        <v>0.009677523456328241</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.280846605733514</v>
+        <v>3.042335546312371</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009677523456328241</v>
+        <v>0.9468284111254108</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.042335546312371</v>
+        <v>1.859575835681168</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9468284111254108</v>
+        <v>18</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.859575835681168</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1751795862726442</v>
       </c>
     </row>
@@ -6444,72 +6402,66 @@
         <v>6.918941973487696e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9814444117988336</v>
+        <v>2.424019630048266e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.3777632703550915</v>
+        <v>4.801628854465406e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.424019630048266e-06</v>
+        <v>-0.05666232366464498</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.801628854465406e-06</v>
+        <v>0.06085462648142216</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05666232366464498</v>
+        <v>0.006912047448066236</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.06085462648142216</v>
+        <v>1.629079404322805</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.006912047448066236</v>
+        <v>1.489512997066392</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.561902469289643</v>
+        <v>4.237029822814677</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.489512997066392</v>
+        <v>3.33987039726742e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.237029822814677</v>
+        <v>13152865.16615805</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.33987039726742e-14</v>
+        <v>8.165148703300915e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>13152865.16615805</v>
+        <v>5.777904383486507</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.165148703300915e-06</v>
+        <v>0.0001318265152842216</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.777904383486507</v>
+        <v>9.335171436757005</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001318265152842216</v>
+        <v>1.170346225148627</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.335171436757005</v>
+        <v>0.01148807780006273</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.170346225148627</v>
+        <v>2.848483688019233</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01148807780006273</v>
+        <v>0.9464966258042981</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.848483688019233</v>
+        <v>1.821058415578579</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9464966258042981</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.821058415578579</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.18829511138912</v>
       </c>
     </row>
@@ -6524,72 +6476,66 @@
         <v>6.603929688496375e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.011129215811142</v>
+        <v>2.305338254335275e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.3257967777380535</v>
+        <v>4.763190963904298e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.305338254335275e-06</v>
+        <v>-0.05705981795176303</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.763190963904298e-06</v>
+        <v>0.06183355248314357</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05705981795176303</v>
+        <v>0.007077429818614078</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06183355248314357</v>
+        <v>1.629626242347011</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.007077429818614078</v>
+        <v>1.485133690027352</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.564176607903287</v>
+        <v>4.242730665728462</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.485133690027352</v>
+        <v>3.330901039480009e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.242730665728462</v>
+        <v>13347163.34965398</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.330901039480009e-14</v>
+        <v>8.056598485221651e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>13347163.34965398</v>
+        <v>5.933892596487537</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.056598485221651e-06</v>
+        <v>0.0001289592444932979</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>5.933892596487537</v>
+        <v>8.711175068022325</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001289592444932979</v>
+        <v>1.213078340566676</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.711175068022325</v>
+        <v>0.009786016953334996</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.213078340566676</v>
+        <v>2.918289955716137</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009786016953334996</v>
+        <v>0.9449005316818692</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.918289955716137</v>
+        <v>1.844271561571568</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9449005316818692</v>
+        <v>18</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.844271561571568</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1906123508336646</v>
       </c>
     </row>
@@ -6604,72 +6550,66 @@
         <v>6.307058648782376e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.045321348902522</v>
+        <v>2.185226686938508e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.2526761282203904</v>
+        <v>4.726322957408315e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.185226686938508e-06</v>
+        <v>-0.0571713583110914</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.726322957408315e-06</v>
+        <v>0.06252804571996752</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0571713583110914</v>
+        <v>0.007176501439429715</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.06252804571996752</v>
+        <v>1.634120614741367</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.007176501439429715</v>
+        <v>1.470052292372468</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.568205417037163</v>
+        <v>4.281810630594801</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.470052292372468</v>
+        <v>3.270376429220175e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.281810630594801</v>
+        <v>13585802.53530465</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.270376429220175e-14</v>
+        <v>7.918187614742946e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>13585802.53530465</v>
+        <v>6.036265588858857</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.918187614742946e-06</v>
+        <v>0.000126163600734037</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6.036265588858857</v>
+        <v>7.833434614596011</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000126163600734037</v>
+        <v>1.25832016397983</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.833434614596011</v>
+        <v>0.007741738912917595</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.25832016397983</v>
+        <v>3.036409242727502</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.007741738912917595</v>
+        <v>0.9455498916637854</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.036409242727502</v>
+        <v>1.855772329173247</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9455498916637854</v>
+        <v>18</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.855772329173247</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.189004798455108</v>
       </c>
     </row>
@@ -6684,72 +6624,66 @@
         <v>6.02648576103855e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.084667945005029</v>
+        <v>2.087685387203057e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.1529818528305311</v>
+        <v>4.690982272578289e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.087685387203057e-06</v>
+        <v>-0.05763312133412252</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.690982272578289e-06</v>
+        <v>0.06412029757159275</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05763312133412252</v>
+        <v>0.007432364270848113</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.06412029757159275</v>
+        <v>1.627527924110032</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.007432364270848113</v>
+        <v>1.439376071059911</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.563095720467698</v>
+        <v>4.380992218671198</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.439376071059911</v>
+        <v>3.123976027318293e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.380992218671198</v>
+        <v>13889471.23631335</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.123976027318293e-14</v>
+        <v>7.675750278051277e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>13889471.23631335</v>
+        <v>6.026693679172556</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.675750278051277e-06</v>
+        <v>0.000129446300176584</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>6.026693679172556</v>
+        <v>7.213425750460683</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000129446300176584</v>
+        <v>1.477259295122302</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.213425750460683</v>
+        <v>0.006735545491579002</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.477259295122302</v>
+        <v>3.121176042654432</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006735545491579002</v>
+        <v>0.945069604915499</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.121176042654432</v>
+        <v>1.831724213896031</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.945069604915499</v>
+        <v>18</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.831724213896031</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1845848261029068</v>
       </c>
     </row>
@@ -6764,72 +6698,66 @@
         <v>5.748096642553734e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.122569762273617</v>
+        <v>2.038090333371e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.05094116678349891</v>
+        <v>4.656645364881884e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.038090333371e-06</v>
+        <v>-0.05909592648280865</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.656645364881884e-06</v>
+        <v>0.06707141892175317</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05909592648280865</v>
+        <v>0.007990486197018551</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06707141892175317</v>
+        <v>1.632734199447472</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.007990486197018551</v>
+        <v>1.424592910753554</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.571929634013771</v>
+        <v>4.616122861947064</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.424592910753554</v>
+        <v>2.81383052945673e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.616122861947064</v>
+        <v>15670316.33877021</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.81383052945673e-14</v>
+        <v>6.833363683177327e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>15670316.33877021</v>
+        <v>6.909608880525202</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.833363683177327e-06</v>
+        <v>0.0001370184538517514</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>6.909608880525202</v>
+        <v>7.947652514641741</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001370184538517514</v>
+        <v>1.465343450805012</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.947652514641741</v>
+        <v>0.008654795368484972</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.465343450805012</v>
+        <v>3.095379118332056</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.008654795368484972</v>
+        <v>0.9452916262683171</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.095379118332056</v>
+        <v>1.855468876708034</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9452916262683171</v>
+        <v>18</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.855468876708034</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1936586839532762</v>
       </c>
     </row>
@@ -6844,72 +6772,66 @@
         <v>5.468259351870698e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.155988480100107</v>
+        <v>1.963696957669619e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.03995994653088131</v>
+        <v>4.623232155827845e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.963696957669619e-06</v>
+        <v>-0.05985702824879875</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.623232155827845e-06</v>
+        <v>0.06953397928199231</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05985702824879875</v>
+        <v>0.008415915112564905</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.06953397928199231</v>
+        <v>1.628109852686215</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.008415915112564905</v>
+        <v>1.399296331646545</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.571323670186783</v>
+        <v>5.122835943673703</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.399296331646545</v>
+        <v>2.278963802696486e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.122835943673703</v>
+        <v>19269425.35216482</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.278963802696486e-14</v>
+        <v>5.549324217297527e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>19269425.35216482</v>
+        <v>8.46203766556606</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.549324217297527e-06</v>
+        <v>0.0001419641569098147</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>8.46203766556606</v>
+        <v>11.49390325743875</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001419641569098147</v>
+        <v>1.093516907199938</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.49390325743875</v>
+        <v>0.01875485809306411</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.093516907199938</v>
+        <v>2.939098266752236</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01875485809306411</v>
+        <v>0.9467648190454413</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.939098266752236</v>
+        <v>1.870015630320126</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9467648190454413</v>
+        <v>18</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.870015630320126</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2452310421379194</v>
       </c>
     </row>
@@ -6924,72 +6846,66 @@
         <v>5.20071638566339e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.193468001470498</v>
+        <v>1.857614616293263e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.154739208763488</v>
+        <v>4.591366442603056e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.857614616293263e-06</v>
+        <v>-0.05953532878599544</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.591366442603056e-06</v>
+        <v>0.0708155950837691</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05953532878599544</v>
+        <v>0.008556801213878661</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0708155950837691</v>
+        <v>1.742228059920309</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008556801213878661</v>
+        <v>1.586362440910779</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.700810750588799</v>
+        <v>4.155906137959973</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.586362440910779</v>
+        <v>2.125836050437067e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.155906137959973</v>
+        <v>19130804.49911931</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.125836050437067e-14</v>
+        <v>5.964879739073427e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>19130804.49911931</v>
+        <v>7.780298058254676</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.964879739073427e-06</v>
+        <v>0.0001670512770939356</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7.780298058254676</v>
+        <v>12.77704169713618</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001670512770939356</v>
+        <v>1.345533114409204</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.77704169713618</v>
+        <v>0.02727158781544995</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.345533114409204</v>
+        <v>3.20593607530963</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02727158781544995</v>
+        <v>0.9553686613039122</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.20593607530963</v>
+        <v>1.682107814975256</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9553686613039122</v>
+        <v>17</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.682107814975256</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3398724145941162</v>
       </c>
     </row>
@@ -7004,72 +6920,66 @@
         <v>4.949235100987013e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.240651363204023</v>
+        <v>1.754207272118223e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.3190605447755703</v>
+        <v>4.561337720969877e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.754207272118223e-06</v>
+        <v>-0.05882479792703595</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.561337720969877e-06</v>
+        <v>0.0725616922575439</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05882479792703595</v>
+        <v>0.008723651433265757</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0725616922575439</v>
+        <v>1.792512865465753</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.008723651433265757</v>
+        <v>1.449741969740112</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.760965939271244</v>
+        <v>5.412578013403548</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.449741969740112</v>
+        <v>1.239438197332968e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.412578013403548</v>
+        <v>32994059.81738848</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.239438197332968e-14</v>
+        <v>3.549906254678338e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>32994059.81738848</v>
+        <v>13.49262316341095</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.549906254678338e-06</v>
+        <v>0.0001331556796336087</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>13.49262316341095</v>
+        <v>11.80587604182028</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001331556796336087</v>
+        <v>1.143387363165592</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.80587604182028</v>
+        <v>0.01855906673863971</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.143387363165592</v>
+        <v>3.298888471909825</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01855906673863971</v>
+        <v>0.958745568864573</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.298888471909825</v>
+        <v>1.653565620495771</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.958745568864573</v>
+        <v>17</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.653565620495771</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.4633360630058291</v>
       </c>
     </row>
@@ -7084,72 +6994,66 @@
         <v>4.706224029821448e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.297471810168996</v>
+        <v>1.675105931208215e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.5355923498580824</v>
+        <v>4.533096522644252e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.675105931208215e-06</v>
+        <v>-0.05822257422739355</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.533096522644252e-06</v>
+        <v>0.07632912383660177</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05822257422739355</v>
+        <v>0.009214945413656934</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.07632912383660177</v>
+        <v>1.83272374123887</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009214945413656934</v>
+        <v>1.54077246695959</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.818145450542979</v>
+        <v>4.999284336358962</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.54077246695959</v>
+        <v>7.454854754540028e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.999284336358962</v>
+        <v>53746733.51626059</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7.454854754540028e-15</v>
+        <v>2.204419204154407e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>53746733.51626059</v>
+        <v>21.53492364393367</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.204419204154407e-06</v>
+        <v>0.0001705184910922437</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>21.53492364393367</v>
+        <v>11.92752057944654</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001705184910922437</v>
+        <v>1.093417179901888</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.92752057944654</v>
+        <v>0.02425894054207118</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.093417179901888</v>
+        <v>2.877266514310942</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02425894054207118</v>
+        <v>0.9605397899250907</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.877266514310942</v>
+        <v>1.540000078016677</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9605397899250907</v>
+        <v>17</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.540000078016677</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3365551821806891</v>
       </c>
     </row>
@@ -7164,72 +7068,66 @@
         <v>4.45751575853493e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.359211400872129</v>
+        <v>1.629155779265377e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.7892753990744397</v>
+        <v>4.506461213499848e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.629155779265377e-06</v>
+        <v>-0.05817723174466501</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.506461213499848e-06</v>
+        <v>0.08277082030696221</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05817723174466501</v>
+        <v>0.01023524658356689</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08277082030696221</v>
+        <v>1.747050215100854</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01023524658356689</v>
+        <v>1.396533251109072</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.734631135552821</v>
+        <v>12.03898817805893</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.396533251109072</v>
+        <v>9.359792648500226e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>12.03898817805893</v>
+        <v>254129795.0800966</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.359792648500226e-15</v>
+        <v>4.189418396896585e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>254129795.0800966</v>
+        <v>604.4736865513893</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.189418396896585e-07</v>
+        <v>0.0001789291010692797</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>604.4736865513893</v>
+        <v>12.09754031201167</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001789291010692797</v>
+        <v>1.076239412377284</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.09754031201167</v>
+        <v>0.02618636011387791</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.076239412377284</v>
+        <v>2.752859106805945</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02618636011387791</v>
+        <v>0.9611050123254828</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.752859106805945</v>
+        <v>1.117923927278048</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9611050123254828</v>
+        <v>18</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.117923927278048</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2984353687940283</v>
       </c>
     </row>
@@ -7244,72 +7142,66 @@
         <v>4.186874131269206e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.412378449561465</v>
+        <v>1.612021928502028e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.028712304960746</v>
+        <v>4.480962708164843e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.612021928502028e-06</v>
+        <v>-0.06000938156063084</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.480962708164843e-06</v>
+        <v>0.08981425987188268</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06000938156063084</v>
+        <v>0.01166781382237423</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.08981425987188268</v>
+        <v>1.744051158952221</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01166781382237423</v>
+        <v>1.404360708618077</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.72882902004838</v>
+        <v>10.68099897870896</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.404360708618077</v>
+        <v>1.189111164315834e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>10.68099897870896</v>
+        <v>199973180.6331172</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.189111164315834e-14</v>
+        <v>5.323507100508757e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>199973180.6331172</v>
+        <v>475.5169094450329</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.323507100508757e-07</v>
+        <v>0.0001538681425336809</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>475.5169094450329</v>
+        <v>9.986492706090191</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001538681425336809</v>
+        <v>1.309769221822466</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.986492706090191</v>
+        <v>0.01534527548165619</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.309769221822466</v>
+        <v>3.444363334774178</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01534527548165619</v>
+        <v>0.9594722580194454</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.444363334774178</v>
+        <v>1.300086302123943</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9594722580194454</v>
+        <v>18</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.300086302123943</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.574353712483739</v>
       </c>
     </row>
@@ -7324,72 +7216,66 @@
         <v>3.892887917381187e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.442304368322968</v>
+        <v>1.564120223602983e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.18361425330615</v>
+        <v>4.456313128484258e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.564120223602983e-06</v>
+        <v>-0.06181465740006501</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.456313128484258e-06</v>
+        <v>0.09710926343131102</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06181465740006501</v>
+        <v>0.01324947321101484</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.09710926343131102</v>
+        <v>1.739425051991166</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01324947321101484</v>
+        <v>1.384385007442976</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.723580973352897</v>
+        <v>10.30078687973983</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.384385007442976</v>
+        <v>1.278513741020394e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>10.30078687973983</v>
+        <v>185640590.817283</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.278513741020394e-14</v>
+        <v>5.731214431345087e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>185640590.817283</v>
+        <v>440.6068897300773</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.731214431345087e-07</v>
+        <v>0.0001036973306759087</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>440.6068897300773</v>
+        <v>8.115760656938305</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001036973306759087</v>
+        <v>1.665576570501335</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.115760656938305</v>
+        <v>0.006830083900365822</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.665576570501335</v>
+        <v>4.489125884147781</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.006830083900365822</v>
+        <v>0.9583091598483647</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.489125884147781</v>
+        <v>1.296976896110662</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9583091598483647</v>
+        <v>18</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.296976896110662</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.159036845939294</v>
       </c>
     </row>
@@ -7404,72 +7290,66 @@
         <v>3.596011354007434e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.453169894724213</v>
+        <v>1.478461325727296e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.26201002991319</v>
+        <v>4.43298732978262e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.478461325727296e-06</v>
+        <v>-0.06272250819638003</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.43298732978262e-06</v>
+        <v>0.1032002137263638</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06272250819638003</v>
+        <v>0.01458036739702389</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1032002137263638</v>
+        <v>1.739066689198804</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01458036739702389</v>
+        <v>1.391826801551121</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.720589781485586</v>
+        <v>10.19326752314163</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.391826801551121</v>
+        <v>1.305627710117591e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>10.19326752314163</v>
+        <v>181689399.0873386</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.305627710117591e-14</v>
+        <v>5.854954408559118e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>181689399.0873386</v>
+        <v>431.0012561401926</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.854954408559118e-07</v>
+        <v>7.537811974307789e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>431.0012561401926</v>
+        <v>8.061829915417974</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>7.537811974307789e-05</v>
+        <v>1.366659546722066</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.061829915417974</v>
+        <v>0.004899057793757817</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.366659546722066</v>
+        <v>4.846973381565016</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.004899057793757817</v>
+        <v>0.9578301698317341</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.846973381565016</v>
+        <v>1.155386634875734</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9578301698317341</v>
+        <v>18</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.155386634875734</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.467995581044939</v>
       </c>
     </row>
@@ -7484,72 +7364,66 @@
         <v>3.310730610932602e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.451973505551734</v>
+        <v>1.37987388461794e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.291918419408772</v>
+        <v>4.411236605536008e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.37987388461794e-06</v>
+        <v>-0.06329960432709113</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.411236605536008e-06</v>
+        <v>0.1082741510780824</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.06329960432709113</v>
+        <v>0.01572465401807424</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1082741510780824</v>
+        <v>1.738384870040119</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01572465401807424</v>
+        <v>1.396072101754698</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.720352095085635</v>
+        <v>10.05443480618413</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.396072101754698</v>
+        <v>1.341933141732995e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>10.05443480618413</v>
+        <v>176615244.3313942</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.341933141732995e-14</v>
+        <v>6.022045066335426e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>176615244.3313942</v>
+        <v>418.588460533654</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.022045066335426e-07</v>
+        <v>7.051005300399067e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>418.588460533654</v>
+        <v>8.702400318394563</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>7.051005300399067e-05</v>
+        <v>1.269043355375006</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.702400318394563</v>
+        <v>0.005339851208561478</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.269043355375006</v>
+        <v>4.856847421557403</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.005339851208561478</v>
+        <v>0.9565337723441523</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.856847421557403</v>
+        <v>1.297483365931922</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9565337723441523</v>
+        <v>6</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.297483365931922</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.571612848095339</v>
       </c>
     </row>
@@ -7564,72 +7438,66 @@
         <v>3.043118815042633e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.442145994011062</v>
+        <v>1.280073797806859e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.287295044213163</v>
+        <v>4.391058510040596e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.280073797806859e-06</v>
+        <v>-0.06383152335970561</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.391058510040596e-06</v>
+        <v>0.1129714838559347</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06383152335970561</v>
+        <v>0.01683066064004628</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1129714838559347</v>
+        <v>1.73525078465271</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01683066064004628</v>
+        <v>1.391406040719457</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.719575192128465</v>
+        <v>9.987094695417685</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.391406040719457</v>
+        <v>1.360090691032945e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>9.987094695417685</v>
+        <v>174070436.5261212</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.360090691032945e-14</v>
+        <v>6.107513140142162e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>174070436.5261212</v>
+        <v>412.114509316303</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.107513140142162e-07</v>
+        <v>7.131288746829859e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>412.114509316303</v>
+        <v>9.075830468795864</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>7.131288746829859e-05</v>
+        <v>1.250112116939487</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.075830468795864</v>
+        <v>0.005874092366958663</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.250112116939487</v>
+        <v>4.802548770120678</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.005874092366958663</v>
+        <v>0.9535462672990487</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.802548770120678</v>
+        <v>1.147518975931153</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9535462672990487</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.147518975931153</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>1.567121196758784</v>
       </c>
     </row>
@@ -7644,72 +7512,66 @@
         <v>2.795346911526229e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.42505128323059</v>
+        <v>1.183682311267654e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.252581800853482</v>
+        <v>4.372358556104344e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.183682311267654e-06</v>
+        <v>-0.06440408408787061</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.372358556104344e-06</v>
+        <v>0.1176853022130065</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06440408408787061</v>
+        <v>0.0179907728341888</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1176853022130065</v>
+        <v>1.739540933463383</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0179907728341888</v>
+        <v>1.40677482211262</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.722721362771022</v>
+        <v>10.01071395129933</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.40677482211262</v>
+        <v>1.353680272520545e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>10.01071395129933</v>
+        <v>174823660.7739764</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.353680272520545e-14</v>
+        <v>6.08154790236179e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>174823660.7739764</v>
+        <v>413.7295301329836</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.08154790236179e-07</v>
+        <v>7.634986817125258e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>413.7295301329836</v>
+        <v>8.576962472708901</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>7.634986817125258e-05</v>
+        <v>1.294626328313731</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.576962472708901</v>
+        <v>0.005616623481580326</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.294626328313731</v>
+        <v>4.797133013014309</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.005616623481580326</v>
+        <v>0.9537758080875566</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.797133013014309</v>
+        <v>1.259732952311171</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9537758080875566</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.259732952311171</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.437337236415924</v>
       </c>
     </row>
@@ -7724,72 +7586,66 @@
         <v>2.567985767915865e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.401336553526655</v>
+        <v>1.092081189387413e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.188592426322343</v>
+        <v>4.35502571488803e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.092081189387413e-06</v>
+        <v>-0.0649851445336224</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.35502571488803e-06</v>
+        <v>0.1225623037226383</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0649851445336224</v>
+        <v>0.01923713599875978</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1225623037226383</v>
+        <v>1.740572936285807</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01923713599875978</v>
+        <v>1.38730646871784</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.721587484075112</v>
+        <v>10.06826802888637</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.38730646871784</v>
+        <v>1.338248196612204e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>10.06826802888637</v>
+        <v>176713854.7498004</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.338248196612204e-14</v>
+        <v>6.015977396715389e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>176713854.7498004</v>
+        <v>417.9052891500002</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.015977396715389e-07</v>
+        <v>9.748415321708235e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>417.9052891500002</v>
+        <v>8.155370366660698</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>9.748415321708235e-05</v>
+        <v>1.685736283317052</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.155370366660698</v>
+        <v>0.00648367744662238</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.685736283317052</v>
+        <v>4.637243337652408</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.00648367744662238</v>
+        <v>0.9554252068986299</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.637243337652408</v>
+        <v>1.26527451630263</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9554252068986299</v>
+        <v>1</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.26527451630263</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>1.241554768748594</v>
       </c>
     </row>
@@ -7804,72 +7660,66 @@
         <v>2.361100833868205e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.372003847421484</v>
+        <v>1.005618369797441e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.097924120360519</v>
+        <v>4.338957854133315e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.005618369797441e-06</v>
+        <v>-0.06553537608136907</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.338957854133315e-06</v>
+        <v>0.1276270055610566</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.06553537608136907</v>
+        <v>0.02057565626035848</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1276270055610566</v>
+        <v>1.739095961398832</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02057565626035848</v>
+        <v>1.38674837242947</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.718889372900527</v>
+        <v>10.10085788512961</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.38674837242947</v>
+        <v>1.329626560931224e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>10.10085788512961</v>
+        <v>177784564.2934306</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.329626560931224e-14</v>
+        <v>5.979041553363501e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>177784564.2934306</v>
+        <v>420.2597381050025</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.979041553363501e-07</v>
+        <v>8.435541693769321e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>420.2597381050025</v>
+        <v>8.136065095908103</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>8.435541693769321e-05</v>
+        <v>1.480418517104594</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.136065095908103</v>
+        <v>0.005583953662101774</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.480418517104594</v>
+        <v>4.754816143633559</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.005583953662101774</v>
+        <v>0.9552785224603356</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.754816143633559</v>
+        <v>1.227229233836256</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9552785224603356</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.227229233836256</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>1.361865124199604</v>
       </c>
     </row>
@@ -7884,72 +7734,66 @@
         <v>2.174568776580698e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.338760781214025</v>
+        <v>9.243485264026886e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.9872854480179867</v>
+        <v>4.324053554275047e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>9.243485264026886e-07</v>
+        <v>-0.0660327253230152</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.324053554275047e-06</v>
+        <v>0.132851641068174</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.0660327253230152</v>
+        <v>0.02200162181723706</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.132851641068174</v>
+        <v>1.739419401479116</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02200162181723706</v>
+        <v>1.371903048384292</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.716897536769829</v>
+        <v>10.13323133578992</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.371903048384292</v>
+        <v>1.321144401703427e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>10.13323133578992</v>
+        <v>178885775.3604873</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.321144401703427e-14</v>
+        <v>5.942352459391487e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>178885775.3604873</v>
+        <v>422.7678021930063</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>5.942352459391487e-07</v>
+        <v>7.138079741940924e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>422.7678021930063</v>
+        <v>8.897239068895919</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>7.138079741940924e-05</v>
+        <v>1.244561410945328</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.897239068895919</v>
+        <v>0.005650565528852543</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.244561410945328</v>
+        <v>4.834911754079517</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.005650565528852543</v>
+        <v>0.9552363452322414</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>4.834911754079517</v>
+        <v>1.174235676554925</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9552363452322414</v>
+        <v>5</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.174235676554925</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>1.559622299204054</v>
       </c>
     </row>
@@ -7964,72 +7808,66 @@
         <v>2.008183657859745e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.30440015637448</v>
+        <v>8.482158442877092e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.8703415920515498</v>
+        <v>4.310218751628724e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>8.482158442877092e-07</v>
+        <v>-0.06639203004654128</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.310218751628724e-06</v>
+        <v>0.1381670141764705</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.06639203004654128</v>
+        <v>0.02348959125454384</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1381670141764705</v>
+        <v>1.732812479495779</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02348959125454384</v>
+        <v>1.370138843519941</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.709275904010126</v>
+        <v>10.14833996657709</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.370138843519941</v>
+        <v>1.317213547094832e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>10.14833996657709</v>
+        <v>179254790.4604206</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.317213547094832e-14</v>
+        <v>5.928888737775837e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>179254790.4604206</v>
+        <v>423.2507438728686</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.928888737775837e-07</v>
+        <v>6.966006457839518e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>423.2507438728686</v>
+        <v>8.97633885172271</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>6.966006457839518e-05</v>
+        <v>1.247827090847738</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.97633885172271</v>
+        <v>0.005612835961926922</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.247827090847738</v>
+        <v>4.843653180064977</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.005612835961926922</v>
+        <v>0.9578298846624247</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>4.843653180064977</v>
+        <v>1.222673543605397</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9578298846624247</v>
+        <v>32</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.222673543605397</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>1.590897422003982</v>
       </c>
     </row>
@@ -8044,72 +7882,66 @@
         <v>1.861359105052123e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.272385833324165</v>
+        <v>7.779068859214982e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.7663979959854474</v>
+        <v>4.297367658667226e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7.779068859214982e-07</v>
+        <v>-0.06657066764178779</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.297367658667226e-06</v>
+        <v>0.1436338493600107</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.06657066764178779</v>
+        <v>0.02505411119198636</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1436338493600107</v>
+        <v>1.737615356200854</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02505411119198636</v>
+        <v>1.381774050416666</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.712968610754914</v>
+        <v>10.24015907806376</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.381774050416666</v>
+        <v>1.293697673177512e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>10.24015907806376</v>
+        <v>182535785.4652683</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.293697673177512e-14</v>
+        <v>5.822705253174682e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>182535785.4652683</v>
+        <v>431.0511766817731</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.822705253174682e-07</v>
+        <v>7.133174223416264e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>431.0511766817731</v>
+        <v>8.478204574387599</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>7.133174223416264e-05</v>
+        <v>1.273095631264262</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.478204574387599</v>
+        <v>0.005127322265301935</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.273095631264262</v>
+        <v>4.878426069949137</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.005127322265301935</v>
+        <v>0.9582795750439065</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>4.878426069949137</v>
+        <v>1.211291065896861</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9582795750439065</v>
+        <v>32</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.211291065896861</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.504193230242492</v>
       </c>
     </row>
@@ -8124,72 +7956,66 @@
         <v>1.732841105888283e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.245653581855954</v>
+        <v>7.142569807005753e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.6944872208586532</v>
+        <v>4.285411830144954e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>7.142569807005753e-07</v>
+        <v>-0.06662763629131579</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.285411830144954e-06</v>
+        <v>0.1493927128773796</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.06662763629131579</v>
+        <v>0.02674994777058185</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1493927128773796</v>
+        <v>1.735334968982864</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02674994777058185</v>
+        <v>1.386663235032306</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.714356468463661</v>
+        <v>10.52653882581553</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.386663235032306</v>
+        <v>1.224263806504199e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>10.52653882581553</v>
+        <v>192806140.3534894</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.224263806504199e-14</v>
+        <v>5.511779456546978e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>192806140.3534894</v>
+        <v>455.1103709359858</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>5.511779456546978e-07</v>
+        <v>9.339516832069637e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>455.1103709359858</v>
+        <v>8.283679134700328</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>9.339516832069637e-05</v>
+        <v>1.681131706693782</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.283679134700328</v>
+        <v>0.006408714809977999</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.681131706693782</v>
+        <v>4.695125765073468</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.006408714809977999</v>
+        <v>0.9564810914730106</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>4.695125765073468</v>
+        <v>1.243885054274713</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9564810914730106</v>
+        <v>32</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.243885054274713</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>1.262017328332639</v>
       </c>
     </row>
@@ -8204,72 +8030,66 @@
         <v>1.620444984665306e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.224660138229257</v>
+        <v>6.592264326406692e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.6638419237730129</v>
+        <v>4.2742405904411e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>6.592264326406692e-07</v>
+        <v>-0.06680271915804439</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.2742405904411e-06</v>
+        <v>0.1558684234093014</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.06680271915804439</v>
+        <v>0.02875161060564128</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1558684234093014</v>
+        <v>1.733546498029056</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02875161060564128</v>
+        <v>1.396304423960211</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.712838005302361</v>
+        <v>11.2316095088543</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.396304423960211</v>
+        <v>1.075380635902173e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>11.2316095088543</v>
+        <v>219202175.9674526</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.075380635902173e-14</v>
+        <v>4.846631630304384e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>219202175.9674526</v>
+        <v>516.716028955728</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.846631630304384e-07</v>
+        <v>0.0001709458268119829</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>516.716028955728</v>
+        <v>9.313172236560762</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001709458268119829</v>
+        <v>1.782439532104305</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.313172236560762</v>
+        <v>0.01482701656438454</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.782439532104305</v>
+        <v>3.8936996498747</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01482701656438454</v>
+        <v>0.9563019313567566</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.8936996498747</v>
+        <v>1.18682780506032</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9563019313567566</v>
+        <v>32</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.18682780506032</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.8050842551822831</v>
       </c>
     </row>
@@ -8284,72 +8104,66 @@
         <v>1.520695989778556e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.205528682204234</v>
+        <v>6.141799951998095e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.6637180901021695</v>
+        <v>4.263722635831434e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>6.141799951998095e-07</v>
+        <v>-0.06731778282781739</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.263722635831434e-06</v>
+        <v>0.1634641478315285</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.06731778282781739</v>
+        <v>0.03124810619916195</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1634641478315285</v>
+        <v>1.735455083646629</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03124810619916195</v>
+        <v>1.411547492727098</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.717168244942014</v>
+        <v>13.08635402002306</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.411547492727098</v>
+        <v>7.921526399168495e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>13.08635402002306</v>
+        <v>297470954.021839</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>7.921526399168495e-15</v>
+        <v>3.571062757700752e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>297470954.021839</v>
+        <v>700.9676999022904</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.571062757700752e-07</v>
+        <v>0.0002427489022102321</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>700.9676999022904</v>
+        <v>13.51851001184609</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002427489022102321</v>
+        <v>1.03008927088192</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>13.51851001184609</v>
+        <v>0.0443623892950739</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.03008927088192</v>
+        <v>2.297068168571189</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0443623892950739</v>
+        <v>0.9544976334837189</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.297068168571189</v>
+        <v>1.26600860375815</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9544976334837189</v>
+        <v>32</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.26600860375815</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.3352590666657175</v>
       </c>
     </row>
@@ -8364,72 +8178,66 @@
         <v>1.429333379145065e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.180433796785809</v>
+        <v>5.86061547658373e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.6631709221079656</v>
+        <v>4.253730370100736e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.86061547658373e-07</v>
+        <v>-0.06834495842552851</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.253730370100736e-06</v>
+        <v>0.1724236792408962</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.06834495842552851</v>
+        <v>0.03439848152133392</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1724236792408962</v>
+        <v>1.896596867206653</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.03439848152133392</v>
+        <v>1.542056879218461</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.890135930093892</v>
+        <v>4.295160149713809</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.542056879218461</v>
+        <v>3.59868243752302e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.295160149713809</v>
+        <v>62549641.60673503</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.59868243752302e-15</v>
+        <v>1.904882178413767e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>62549641.60673503</v>
+        <v>14.07969268705924</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.904882178413767e-06</v>
+        <v>0.0002567987232677894</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>14.07969268705924</v>
+        <v>13.22932777724459</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0002567987232677894</v>
+        <v>1.083526801941335</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>13.22932777724459</v>
+        <v>0.04494365768338805</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.083526801941335</v>
+        <v>2.198410002132842</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.04494365768338805</v>
+        <v>0.9547170861448195</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.198410002132842</v>
+        <v>1.455656822853882</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9547170861448195</v>
+        <v>31</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.455656822853882</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.3243771212196399</v>
       </c>
     </row>
@@ -8444,72 +8252,66 @@
         <v>1.342182078511622e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.138555756730109</v>
+        <v>5.609174520418589e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.6119532852737275</v>
+        <v>4.244169915677176e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.609174520418589e-07</v>
+        <v>-0.06965728980459059</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.244169915677176e-06</v>
+        <v>0.1828245112990641</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.06965728980459059</v>
+        <v>0.03827475350422106</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1828245112990641</v>
+        <v>1.905008979813398</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.03827475350422106</v>
+        <v>1.606935998780417</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.912066118936436</v>
+        <v>4.502346472776005</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.606935998780417</v>
+        <v>2.245491288925152e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.502346472776005</v>
+        <v>100561087.888068</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.245491288925152e-15</v>
+        <v>1.18341079073548e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>100561087.888068</v>
+        <v>22.70760340695726</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.18341079073548e-06</v>
+        <v>0.0002430395327271525</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>22.70760340695726</v>
+        <v>13.19189393917689</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0002430395327271525</v>
+        <v>1.092335659829502</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>13.19189393917689</v>
+        <v>0.04229521369067839</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.092335659829502</v>
+        <v>2.422263471280449</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.04229521369067839</v>
+        <v>0.9556291996685436</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.422263471280449</v>
+        <v>1.36989067178744</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9556291996685436</v>
+        <v>31</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.36989067178744</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.5042834699870161</v>
       </c>
     </row>
@@ -8886,7 +8688,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.832494863138844</v>
+        <v>1.864694400056917</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.133575192208879</v>
@@ -8975,7 +8777,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.819131474543348</v>
+        <v>1.855099256037247</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.388288954508116</v>
@@ -9064,7 +8866,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.812651454707361</v>
+        <v>1.853282582948458</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.042825790044879</v>
@@ -9153,7 +8955,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.823762712948226</v>
+        <v>1.865098789240586</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.259501583585875</v>
@@ -9242,7 +9044,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.816441427580397</v>
+        <v>1.863390641283795</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.210370920744998</v>
@@ -9331,7 +9133,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.827006239463315</v>
+        <v>1.870470986460365</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.834188261246041</v>
@@ -9420,7 +9222,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.830246768244085</v>
+        <v>1.872784213431861</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.227626426660247</v>
@@ -9509,7 +9311,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.821827357593683</v>
+        <v>1.869903480991802</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.411492069792299</v>
@@ -9598,7 +9400,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.821293651200258</v>
+        <v>1.871529402135864</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.969655430744776</v>
@@ -9687,7 +9489,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.829080483280765</v>
+        <v>1.877452218827516</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.449286267960481</v>
@@ -9776,7 +9578,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.831298721678039</v>
+        <v>1.883517696737261</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.84586029751616</v>
@@ -9865,7 +9667,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.81288156858356</v>
+        <v>1.869165687812931</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.093360133492928</v>
@@ -9954,7 +9756,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.829213457408103</v>
+        <v>1.879408844323616</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.657450821395427</v>
@@ -10043,7 +9845,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.829527466488459</v>
+        <v>1.877709906863033</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.186058461081036</v>
@@ -10132,7 +9934,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.831004850556996</v>
+        <v>1.879532992698673</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.285566763925718</v>
@@ -10221,7 +10023,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.829542675181301</v>
+        <v>1.882393484971552</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.296615823960997</v>
@@ -10310,7 +10112,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.840526012590257</v>
+        <v>1.890230357449721</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.398039197898125</v>
@@ -10399,7 +10201,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.856221438641436</v>
+        <v>1.896914899739823</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.234845349518947</v>
@@ -10488,7 +10290,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.853678473757941</v>
+        <v>1.892738416835525</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.408119349103631</v>
@@ -10577,7 +10379,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.860830004436409</v>
+        <v>1.901931970634499</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.699774675793179</v>
@@ -10666,7 +10468,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.876188344929585</v>
+        <v>1.914563925532623</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.364441279778798</v>
@@ -10755,7 +10557,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.852253463831079</v>
+        <v>1.895137301277406</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.154182953254613</v>
@@ -10844,7 +10646,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.859639228382403</v>
+        <v>1.900255540649534</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.356842485849155</v>
@@ -10933,7 +10735,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.846979322070483</v>
+        <v>1.893696458307917</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.503493757254399</v>
@@ -11022,7 +10824,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.85136364039249</v>
+        <v>1.888012918766167</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.7438628427618</v>
@@ -11111,7 +10913,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.839867648249998</v>
+        <v>1.885311092734215</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.258631448246605</v>
@@ -11200,7 +11002,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.863552888019305</v>
+        <v>1.903434663870271</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.388919228869086</v>
@@ -11289,7 +11091,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.865178476632738</v>
+        <v>1.906777910468339</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.43067401849433</v>
@@ -11378,7 +11180,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.852589115888458</v>
+        <v>1.897784492981474</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.19630238219663</v>
@@ -11467,7 +11269,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.866710637749239</v>
+        <v>1.908628927926775</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.255882459305127</v>
@@ -11556,7 +11358,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.859771479359191</v>
+        <v>1.900085312552233</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.376829923277081</v>
@@ -11645,7 +11447,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.863118923623065</v>
+        <v>1.904027987745605</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.378786410219463</v>
@@ -11734,7 +11536,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.863228814666581</v>
+        <v>1.904917501216135</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.441734503310782</v>
@@ -11823,7 +11625,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.879039887976495</v>
+        <v>1.914577168024631</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.206676887297951</v>
@@ -11912,7 +11714,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.857076885660633</v>
+        <v>1.892187536047958</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.661613277913718</v>
@@ -12001,7 +11803,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.85301861942277</v>
+        <v>1.883115367203409</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.988694102118461</v>
@@ -12090,7 +11892,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.857568953018492</v>
+        <v>1.886106671337693</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.015102773410462</v>
@@ -12179,7 +11981,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.878460653185999</v>
+        <v>1.901042442946569</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.583441707446205</v>
@@ -12268,7 +12070,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.868918421079936</v>
+        <v>1.896896045354034</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.732077581957446</v>
@@ -12357,7 +12159,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.884930849358101</v>
+        <v>1.910819831140222</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.105045148749424</v>
@@ -12446,7 +12248,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.878012592270982</v>
+        <v>1.899076566186193</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.465056715468046</v>
@@ -12535,7 +12337,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.874775070856922</v>
+        <v>1.898123686324594</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.426413871095632</v>
@@ -12624,7 +12426,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.840454036549781</v>
+        <v>1.868344875429018</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.47005163241867</v>
@@ -12713,7 +12515,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.841125403891311</v>
+        <v>1.867737558319312</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.612989596128918</v>
@@ -12802,7 +12604,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.838628591521433</v>
+        <v>1.869023578291528</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.716838604272086</v>
@@ -12891,7 +12693,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.849850350740412</v>
+        <v>1.880131441598417</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.731116542613031</v>
@@ -12980,7 +12782,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.848429781318534</v>
+        <v>1.877943791189411</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.538404957413414</v>
@@ -13069,7 +12871,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.791871135083891</v>
+        <v>1.820807014930732</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.361076132642331</v>
@@ -13158,7 +12960,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.756666224883118</v>
+        <v>1.790444134960209</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.451791218832058</v>
@@ -13247,7 +13049,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.753083130251268</v>
+        <v>1.790091979984602</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.375372377302132</v>
@@ -13336,7 +13138,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.765682367937717</v>
+        <v>1.803809645027822</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.338440060352826</v>
@@ -13425,7 +13227,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.766685104354926</v>
+        <v>1.805596844066334</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.356783123170909</v>
@@ -13514,7 +13316,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.750513664056872</v>
+        <v>1.791302393657316</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.422468992315364</v>
@@ -13603,7 +13405,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.759102469867227</v>
+        <v>1.794407366400794</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.43375696766959</v>
@@ -13692,7 +13494,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.756188664887252</v>
+        <v>1.79173864286356</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.369523245669262</v>
@@ -13781,7 +13583,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.763358399225732</v>
+        <v>1.798117903337472</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.258534898039069</v>
@@ -13870,7 +13672,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.760431258050247</v>
+        <v>1.790740144809073</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.345029068101745</v>
@@ -13959,7 +13761,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.785713995998234</v>
+        <v>1.813026664464457</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.362708122579846</v>
@@ -14048,7 +13850,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.798882198457379</v>
+        <v>1.820268474823637</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.329988552767492</v>
@@ -14137,7 +13939,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.802051538427031</v>
+        <v>1.817443530506036</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.275555276141924</v>
@@ -14226,7 +14028,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.794129786430722</v>
+        <v>1.810640253505347</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.284721144690421</v>
@@ -14315,7 +14117,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.791894284713106</v>
+        <v>1.803960808855651</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.391730086951333</v>
@@ -14404,7 +14206,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.869954179496229</v>
+        <v>1.879480057510422</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.688218706510149</v>
@@ -14493,7 +14295,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.906859756258764</v>
+        <v>1.902753852525623</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.655216319871981</v>
@@ -14582,7 +14384,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.923174914259502</v>
+        <v>1.913672528283161</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.227239263103086</v>
@@ -14671,7 +14473,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.921400351661247</v>
+        <v>1.911303709726405</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.569531637726017</v>
@@ -14760,7 +14562,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.921541452797211</v>
+        <v>1.908166868556271</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.032586754478227</v>
@@ -14849,7 +14651,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.921942261352852</v>
+        <v>1.908459294713772</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.664229829901042</v>
@@ -14938,7 +14740,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.919937820925021</v>
+        <v>1.901637908889111</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.784047901141731</v>
@@ -15027,7 +14829,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.918132754150548</v>
+        <v>1.901107975703589</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.765453754277269</v>
@@ -15116,7 +14918,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.91653170461415</v>
+        <v>1.894790924328169</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.597828693111847</v>
@@ -15205,7 +15007,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.879392564579798</v>
+        <v>1.869794935860624</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.111015938592261</v>
@@ -15294,7 +15096,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.875958648241898</v>
+        <v>1.863324092611158</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.454197783783504</v>
@@ -15383,7 +15185,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.870204475245164</v>
+        <v>1.857448815149857</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.221946374537703</v>
@@ -15472,7 +15274,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.862530978953563</v>
+        <v>1.846591277712227</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.322592185276463</v>
@@ -15561,7 +15363,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.869818981274171</v>
+        <v>1.853695758899325</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.367613266121815</v>
@@ -15847,7 +15649,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.627468942516259</v>
+        <v>1.643501286874085</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.345451431275004</v>
@@ -15936,7 +15738,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.635799528816746</v>
+        <v>1.654127104212644</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.759463975269739</v>
@@ -16025,7 +15827,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.636099315084742</v>
+        <v>1.649089667911097</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.236610881572612</v>
@@ -16114,7 +15916,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.644619577997488</v>
+        <v>1.655139652880411</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.404854107036514</v>
@@ -16203,7 +16005,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.639874586779484</v>
+        <v>1.645795948183705</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.299698478368124</v>
@@ -16292,7 +16094,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.655179503589951</v>
+        <v>1.652582514914102</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.314311508923188</v>
@@ -16381,7 +16183,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.660244391048839</v>
+        <v>1.661473846387589</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.34152390964445</v>
@@ -16470,7 +16272,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.680858333498189</v>
+        <v>1.682128290110959</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.288503922688129</v>
@@ -16559,7 +16361,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.693018260922607</v>
+        <v>1.694834708521162</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.068345038575425</v>
@@ -16648,7 +16450,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.696247100258839</v>
+        <v>1.697416799629348</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.148800780809536</v>
@@ -16737,7 +16539,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.700124565145707</v>
+        <v>1.705363829316386</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.92374047081354</v>
@@ -16826,7 +16628,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.705511871350162</v>
+        <v>1.709659418053167</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.212221553121454</v>
@@ -16915,7 +16717,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.699142616824178</v>
+        <v>1.705217443840755</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.933847380973839</v>
@@ -17004,7 +16806,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.687908454578923</v>
+        <v>1.69610749734572</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.968743625219111</v>
@@ -17093,7 +16895,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.686749674097211</v>
+        <v>1.692451432250748</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.558926992198588</v>
@@ -17182,7 +16984,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.695575797192042</v>
+        <v>1.7024102426467</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.731942055829371</v>
@@ -17271,7 +17073,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.685555896958923</v>
+        <v>1.693032470053396</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.169705209115489</v>
@@ -17360,7 +17162,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.673518692671333</v>
+        <v>1.684558394365628</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.305347321699323</v>
@@ -17449,7 +17251,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.659745869601628</v>
+        <v>1.661945813783531</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.008265934909456</v>
@@ -17538,7 +17340,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.638067114059068</v>
+        <v>1.650715438036977</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.715398030994883</v>
@@ -17627,7 +17429,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.635451314985041</v>
+        <v>1.657953021368509</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.722540549507205</v>
@@ -17716,7 +17518,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.613790750481473</v>
+        <v>1.635076819365805</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.120123603001112</v>
@@ -17805,7 +17607,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.603540773366428</v>
+        <v>1.623087432038121</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.012288454955896</v>
@@ -17894,7 +17696,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.597877114626319</v>
+        <v>1.619993596204191</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.694864098306633</v>
@@ -17983,7 +17785,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592183328257808</v>
+        <v>1.611839374348278</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.791819001523582</v>
@@ -18072,7 +17874,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.585046310328252</v>
+        <v>1.605797432107229</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.928350320757636</v>
@@ -18161,7 +17963,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.585595085576818</v>
+        <v>1.604002488471562</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.052381363284713</v>
@@ -18250,7 +18052,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.586377753655098</v>
+        <v>1.606612945946329</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.945897444207576</v>
@@ -18339,7 +18141,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.578988217589803</v>
+        <v>1.596867951706021</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.65425490896931</v>
@@ -18428,7 +18230,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.561265636852007</v>
+        <v>1.575146973870053</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.999319909398708</v>
@@ -18517,7 +18319,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.554903403767878</v>
+        <v>1.566545564968747</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.172694674195077</v>
@@ -18606,7 +18408,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.551917609029716</v>
+        <v>1.562010406829874</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.667781303919085</v>
@@ -18695,7 +18497,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.560700752317006</v>
+        <v>1.573666209917826</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.207141167667505</v>
@@ -18784,7 +18586,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.568807035196519</v>
+        <v>1.582466592236851</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.953654858593239</v>
@@ -18873,7 +18675,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.565823156930114</v>
+        <v>1.580290752726813</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.883965874153612</v>
@@ -18962,7 +18764,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.577512889616078</v>
+        <v>1.583060598130622</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.744490586579488</v>
@@ -19051,7 +18853,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.569187927032814</v>
+        <v>1.574745010758267</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.873246069781812</v>
@@ -19140,7 +18942,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.575513483027982</v>
+        <v>1.572539470316236</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.958501435303666</v>
@@ -19229,7 +19031,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.572136520797503</v>
+        <v>1.571256419688253</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.088509299902445</v>
@@ -19318,7 +19120,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.57952459511839</v>
+        <v>1.579457013764284</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.29965735038603</v>
@@ -19407,7 +19209,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.536067874341486</v>
+        <v>1.489495577227113</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.739178904279367</v>
@@ -19496,7 +19298,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.43342747765469</v>
+        <v>1.440150568155044</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.742952408246702</v>
@@ -19585,7 +19387,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.4262455678393</v>
+        <v>1.435385155238816</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.728206708414692</v>
@@ -19674,7 +19476,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.425984385271827</v>
+        <v>1.435588427383815</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.759489239666146</v>
@@ -19763,7 +19565,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.426462119034412</v>
+        <v>1.438976672131737</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.738602662046556</v>
@@ -19852,7 +19654,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.423531082537246</v>
+        <v>1.437138590352305</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.754429613485412</v>
@@ -19941,7 +19743,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.420399590852088</v>
+        <v>1.435106742932805</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.749652250413204</v>
@@ -20030,7 +19832,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.372297107651769</v>
+        <v>1.384282306582389</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.760493687857719</v>
@@ -20119,7 +19921,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.342470505152607</v>
+        <v>1.347561326722973</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.795282227054606</v>
@@ -20208,7 +20010,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.336922510094414</v>
+        <v>1.344897487175758</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.772855735437507</v>
@@ -20297,7 +20099,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.338867748886998</v>
+        <v>1.349957790802249</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.79428691354355</v>
@@ -20386,7 +20188,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.33590972193919</v>
+        <v>1.347935026050129</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.791067849533495</v>
@@ -20475,7 +20277,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.333143830570794</v>
+        <v>1.348385613780255</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.790269509869087</v>
@@ -20564,7 +20366,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.334608901507191</v>
+        <v>1.347471431936652</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.777264786032084</v>
@@ -20653,7 +20455,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.329503271623914</v>
+        <v>1.340532175556534</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.784727477960039</v>
@@ -20742,7 +20544,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.386769622138186</v>
+        <v>1.398268837892556</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.67900169954033</v>
@@ -20831,7 +20633,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.403892567869158</v>
+        <v>1.411756397746789</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.721459653013535</v>
@@ -20920,7 +20722,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.408947664452991</v>
+        <v>1.413659282112503</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.737319743253727</v>
@@ -21009,7 +20811,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.415775828777677</v>
+        <v>1.421265944311647</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.728414832395209</v>
@@ -21098,7 +20900,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.416809010739305</v>
+        <v>1.426285388630591</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.711117276831817</v>
@@ -21187,7 +20989,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.421914716050039</v>
+        <v>1.42689651399995</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.687811610235751</v>
@@ -21276,7 +21078,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.425581042345367</v>
+        <v>1.428614617441506</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.721299937659675</v>
@@ -21365,7 +21167,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.542317363992793</v>
+        <v>1.543049010306209</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.977864937868495</v>
@@ -21454,7 +21256,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.618463393679041</v>
+        <v>1.616177537455201</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.581975303559334</v>
@@ -21543,7 +21345,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.621428809038054</v>
+        <v>1.614438680420271</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.127881810283857</v>
@@ -21632,7 +21434,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.6234427591196</v>
+        <v>1.614628422782203</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.730209029081808</v>
@@ -21721,7 +21523,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.633329166501733</v>
+        <v>1.625599765371232</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.370969650258318</v>
@@ -21810,7 +21612,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.621756745820024</v>
+        <v>1.616961546187884</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.253181622252229</v>
@@ -21899,7 +21701,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.629551323266221</v>
+        <v>1.62599026773047</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.140800858090385</v>
@@ -21988,7 +21790,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.63247848546047</v>
+        <v>1.632559497133929</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.102498352530781</v>
@@ -22077,7 +21879,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.617164358175257</v>
+        <v>1.61283850451648</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.918733887483151</v>
@@ -22166,7 +21968,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.625862471951553</v>
+        <v>1.62077949468161</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.024605053116885</v>
@@ -22255,7 +22057,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.606094006384704</v>
+        <v>1.605402553633313</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.81411602843937</v>
@@ -22344,7 +22146,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.588534942525446</v>
+        <v>1.587842875094171</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.77642384448366</v>
@@ -22433,7 +22235,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.583733258477113</v>
+        <v>1.582081077656776</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.978172934315927</v>
@@ -22522,7 +22324,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.589538583186012</v>
+        <v>1.584416639162318</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.998598380799119</v>
@@ -22808,7 +22610,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.862252414490228</v>
+        <v>1.851996346774186</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.784951934876057</v>
@@ -22897,7 +22699,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.861535310703724</v>
+        <v>1.853216204208843</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.341233660773518</v>
@@ -22986,7 +22788,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.858505800435071</v>
+        <v>1.849575932067652</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.66864112581316</v>
@@ -23075,7 +22877,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.864172217412565</v>
+        <v>1.854079339611</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.408279526398265</v>
@@ -23164,7 +22966,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.857987737980666</v>
+        <v>1.852104488897561</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.110621082274603</v>
@@ -23253,7 +23055,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.862027227868585</v>
+        <v>1.859772231619223</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.493063847671414</v>
@@ -23342,7 +23144,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.861801523343329</v>
+        <v>1.860173439604439</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.730652242316326</v>
@@ -23431,7 +23233,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.863559960809665</v>
+        <v>1.864223118081702</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.924708227688735</v>
@@ -23520,7 +23322,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.865195071535368</v>
+        <v>1.873571180030349</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.504362350283777</v>
@@ -23609,7 +23411,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.869261318158707</v>
+        <v>1.877818488435504</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.746499690671488</v>
@@ -23698,7 +23500,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.874107598564441</v>
+        <v>1.888436178588014</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.240811371313931</v>
@@ -23787,7 +23589,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.869088163882201</v>
+        <v>1.886510167486172</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.271865066220379</v>
@@ -23876,7 +23678,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.868618217952722</v>
+        <v>1.885880257427629</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.176103748142979</v>
@@ -23965,7 +23767,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.868938735928121</v>
+        <v>1.88534733160282</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.821539293082569</v>
@@ -24054,7 +23856,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.869975567318677</v>
+        <v>1.88336338372159</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.112039978584751</v>
@@ -24143,7 +23945,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.866587197735118</v>
+        <v>1.884538219945588</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.130279856827952</v>
@@ -24232,7 +24034,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.864866773530375</v>
+        <v>1.883334088331056</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.223069862647335</v>
@@ -24321,7 +24123,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.866055539203982</v>
+        <v>1.885549211160489</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.933651875288283</v>
@@ -24410,7 +24212,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.867000201385466</v>
+        <v>1.887001429415786</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.287306757104892</v>
@@ -24499,7 +24301,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.873036773971372</v>
+        <v>1.896556433077685</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.006790663482091</v>
@@ -24588,7 +24390,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.877739907020965</v>
+        <v>1.899856783953379</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.174788260606846</v>
@@ -24677,7 +24479,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.870666685839458</v>
+        <v>1.895733320945417</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.043056781963996</v>
@@ -24766,7 +24568,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.865838630551008</v>
+        <v>1.886292871474817</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.928807400452003</v>
@@ -24855,7 +24657,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.85907908275692</v>
+        <v>1.881471687282059</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.729547043765125</v>
@@ -24944,7 +24746,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.856519218439248</v>
+        <v>1.877283852206248</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.896068322126359</v>
@@ -25033,7 +24835,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.851280013892069</v>
+        <v>1.874487444073882</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.117906370116613</v>
@@ -25122,7 +24924,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.859812128670943</v>
+        <v>1.873158011553821</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.261663928930442</v>
@@ -25211,7 +25013,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.85958747014564</v>
+        <v>1.870940371047655</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.27979343402393</v>
@@ -25300,7 +25102,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.853202464090235</v>
+        <v>1.868149622063034</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.149036373247023</v>
@@ -25389,7 +25191,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.858143422006623</v>
+        <v>1.874606958190388</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.395845133116453</v>
@@ -25478,7 +25280,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.858671567301539</v>
+        <v>1.869816348361117</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.159416999348982</v>
@@ -25567,7 +25369,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.858770808759147</v>
+        <v>1.871816996083082</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.228549226773386</v>
@@ -25656,7 +25458,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.857939992311091</v>
+        <v>1.867841102990325</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.929980153731281</v>
@@ -25745,7 +25547,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.865488763739871</v>
+        <v>1.873036456150345</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.92238067392792</v>
@@ -25834,7 +25636,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.859695245123605</v>
+        <v>1.863406406137639</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.543484922492401</v>
@@ -25923,7 +25725,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.864111374571696</v>
+        <v>1.866851932352497</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.925222390841957</v>
@@ -26012,7 +25814,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.860676481178647</v>
+        <v>1.859394350308429</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.28410550587992</v>
@@ -26101,7 +25903,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.875174720909575</v>
+        <v>1.876876505519775</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.295263810154062</v>
@@ -26190,7 +25992,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.871910452642561</v>
+        <v>1.870458211203007</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.658265610692081</v>
@@ -26279,7 +26081,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.882034376235059</v>
+        <v>1.878791830531663</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.505999094939483</v>
@@ -26368,7 +26170,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.876183016801199</v>
+        <v>1.86751357632053</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.251243297123318</v>
@@ -26457,7 +26259,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.872436043505673</v>
+        <v>1.872339372030429</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.413442462963499</v>
@@ -26546,7 +26348,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.867236132200735</v>
+        <v>1.869321155034964</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.663622649167644</v>
@@ -26635,7 +26437,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.865512291496799</v>
+        <v>1.863857840468349</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.280253289117248</v>
@@ -26724,7 +26526,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.869773864254035</v>
+        <v>1.869727375486788</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.218375861322269</v>
@@ -26813,7 +26615,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.873674233191053</v>
+        <v>1.877277145935403</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.485864083308874</v>
@@ -26902,7 +26704,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.87360242334024</v>
+        <v>1.877897265126882</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.318001122515409</v>
@@ -26991,7 +26793,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.783715233784113</v>
+        <v>1.802832071921266</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.13713092163533</v>
@@ -27080,7 +26882,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.727227563285707</v>
+        <v>1.758535996521123</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.162741288524387</v>
@@ -27169,7 +26971,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.714265660924754</v>
+        <v>1.747599540650476</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.149020471586566</v>
@@ -27258,7 +27060,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.717528789340128</v>
+        <v>1.751279289023717</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.222365532476513</v>
@@ -27347,7 +27149,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.71976445145367</v>
+        <v>1.752638595923629</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.123774976503299</v>
@@ -27436,7 +27238,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.711845228290398</v>
+        <v>1.742732915324592</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.113158983611498</v>
@@ -27525,7 +27327,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.71127887128376</v>
+        <v>1.741137107251009</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.122552988229395</v>
@@ -27614,7 +27416,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.709275976686176</v>
+        <v>1.738049757961153</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.132304415293447</v>
@@ -27703,7 +27505,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.70820435651526</v>
+        <v>1.736803608244409</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.100753817716075</v>
@@ -27792,7 +27594,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.697409966553429</v>
+        <v>1.723361087340634</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.136781335162966</v>
@@ -27881,7 +27683,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.702418275858291</v>
+        <v>1.729225571502754</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.051188774695396</v>
@@ -27970,7 +27772,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.703394694393517</v>
+        <v>1.72940559692623</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.107494052875057</v>
@@ -28059,7 +27861,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.707526644470235</v>
+        <v>1.729201035720244</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.090969411178302</v>
@@ -28148,7 +27950,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.705937428071816</v>
+        <v>1.729499832458031</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.083996569228566</v>
@@ -28237,7 +28039,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.703850538069938</v>
+        <v>1.718881173594293</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.05626274829699</v>
@@ -28326,7 +28128,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.813673998640682</v>
+        <v>1.814296761756296</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.398020484697741</v>
@@ -28415,7 +28217,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.868003939330412</v>
+        <v>1.847963964499084</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.135300602288628</v>
@@ -28504,7 +28306,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.885256569678577</v>
+        <v>1.862335320944565</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.115766039382894</v>
@@ -28593,7 +28395,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.881313948523181</v>
+        <v>1.859365794202676</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.585914294812696</v>
@@ -28682,7 +28484,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.886390799416381</v>
+        <v>1.859728567805699</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.518346572773145</v>
@@ -28771,7 +28573,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.882400030724748</v>
+        <v>1.853286626083815</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.337666967670239</v>
@@ -28860,7 +28662,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.883994515343875</v>
+        <v>1.857096541966053</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.390276664046916</v>
@@ -28949,7 +28751,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.882853100756361</v>
+        <v>1.857126838547663</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.772562736161146</v>
@@ -29038,7 +28840,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.876282701462054</v>
+        <v>1.851478453917533</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.308416499910448</v>
@@ -29127,7 +28929,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.87745243086277</v>
+        <v>1.850094732269672</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.113650289916627</v>
@@ -29216,7 +29018,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.87365369168175</v>
+        <v>1.842232158896997</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.416173398348814</v>
@@ -29305,7 +29107,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.832533554032846</v>
+        <v>1.811216620343626</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.92886007917551</v>
@@ -29394,7 +29196,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.825396596828277</v>
+        <v>1.805085189953069</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.896785293591007</v>
@@ -29483,7 +29285,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.821405050453352</v>
+        <v>1.799626464557024</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.769365899517703</v>
@@ -29769,7 +29571,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.892801407051692</v>
+        <v>1.88840871822551</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.867004465100046</v>
@@ -29858,7 +29660,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.8846624222673</v>
+        <v>1.881210746241949</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.529963453918486</v>
@@ -29947,7 +29749,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.878350164471334</v>
+        <v>1.879495013340517</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.46973715585151</v>
@@ -30036,7 +29838,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.884122008716258</v>
+        <v>1.88703669320612</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.177059679168213</v>
@@ -30125,7 +29927,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.871005677345384</v>
+        <v>1.875958249283976</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.876165731789437</v>
@@ -30214,7 +30016,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.875802341767514</v>
+        <v>1.880949765684652</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.47082087872754</v>
@@ -30303,7 +30105,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.881044110410163</v>
+        <v>1.889402591279544</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.647810289512031</v>
@@ -30392,7 +30194,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.874119700510204</v>
+        <v>1.89075284128089</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.76738213535554</v>
@@ -30481,7 +30283,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.875072349054562</v>
+        <v>1.89901189523387</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.867057550709308</v>
@@ -30570,7 +30372,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.885812372936575</v>
+        <v>1.912260439741237</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.349575857836316</v>
@@ -30659,7 +30461,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.890079542774941</v>
+        <v>1.921691494400493</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.575632896998982</v>
@@ -30748,7 +30550,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.886336757858454</v>
+        <v>1.922971420318079</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.386841319896446</v>
@@ -30837,7 +30639,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.889782121696657</v>
+        <v>1.928339308268129</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.732207520469183</v>
@@ -30926,7 +30728,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.89223650830069</v>
+        <v>1.93073283179729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.76166942845899</v>
@@ -31015,7 +30817,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.89198298381076</v>
+        <v>1.924140279472312</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.590133595126924</v>
@@ -31104,7 +30906,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.888831191024968</v>
+        <v>1.917935016208101</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.680111067153118</v>
@@ -31193,7 +30995,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.891196757114443</v>
+        <v>1.919907625153202</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.195695577713516</v>
@@ -31282,7 +31084,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.898662620381898</v>
+        <v>1.926371374868063</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.769996738281294</v>
@@ -31371,7 +31173,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.891597477171823</v>
+        <v>1.912686266072449</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.842952943478029</v>
@@ -31460,7 +31262,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.898707333736789</v>
+        <v>1.923635894030408</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.680371762374578</v>
@@ -31549,7 +31351,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.909180454367603</v>
+        <v>1.928817991436084</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.108001744252803</v>
@@ -31638,7 +31440,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.886666766053444</v>
+        <v>1.902999409164181</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.557474510552003</v>
@@ -31727,7 +31529,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.897140496446664</v>
+        <v>1.909385506767399</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.614900563399793</v>
@@ -31816,7 +31618,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.893031029672708</v>
+        <v>1.91039901980449</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.33804449463324</v>
@@ -31905,7 +31707,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.895095176934319</v>
+        <v>1.900203332310057</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.6964701596761</v>
@@ -31994,7 +31796,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.885932032312224</v>
+        <v>1.895599650853999</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.427425655181225</v>
@@ -32083,7 +31885,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.893120205671411</v>
+        <v>1.896555475881913</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.0747517365079</v>
@@ -32172,7 +31974,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.895329775738126</v>
+        <v>1.895657733254494</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.661529365167163</v>
@@ -32261,7 +32063,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.879045590809703</v>
+        <v>1.878370287726283</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.564866431083066</v>
@@ -32350,7 +32152,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.8865373671568</v>
+        <v>1.884005500653955</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.254647545270971</v>
@@ -32439,7 +32241,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.884254487786117</v>
+        <v>1.876634505153811</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.549822323568862</v>
@@ -32528,7 +32330,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.885944829587892</v>
+        <v>1.877356896726873</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.412076856543</v>
@@ -32617,7 +32419,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.887510048580203</v>
+        <v>1.875680999867846</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.203281464716863</v>
@@ -32706,7 +32508,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.903025875602567</v>
+        <v>1.887989070441545</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.427156229343808</v>
@@ -32795,7 +32597,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.887640379273428</v>
+        <v>1.869128046591625</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.336390012958651</v>
@@ -32884,7 +32686,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.884054085547301</v>
+        <v>1.869342124815715</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.489136074647264</v>
@@ -32973,7 +32775,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.889724055716695</v>
+        <v>1.876844352873455</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.684961606918164</v>
@@ -33062,7 +32864,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.897225945901533</v>
+        <v>1.879076556259155</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.546155355662742</v>
@@ -33151,7 +32953,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.88467416674504</v>
+        <v>1.860897949650101</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.988261860946983</v>
@@ -33240,7 +33042,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.89612208963164</v>
+        <v>1.873420220993594</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.968342906032555</v>
@@ -33329,7 +33131,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.889009182764809</v>
+        <v>1.863467284075035</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.844118127907468</v>
@@ -33418,7 +33220,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.884662575741013</v>
+        <v>1.864572414894516</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.932909354880444</v>
@@ -33507,7 +33309,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.863726265585299</v>
+        <v>1.853727100044247</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.347497834205039</v>
@@ -33596,7 +33398,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.86890664448396</v>
+        <v>1.86203971652572</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.531537503725279</v>
@@ -33685,7 +33487,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.869782444228456</v>
+        <v>1.872595699956393</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.019159833210433</v>
@@ -33774,7 +33576,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.872119711785617</v>
+        <v>1.880257228317069</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.8024153965014</v>
@@ -33863,7 +33665,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.868075711862894</v>
+        <v>1.880207743465055</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.601208692012523</v>
@@ -33952,7 +33754,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.812317653715457</v>
+        <v>1.836437492404491</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.368342398804522</v>
@@ -34041,7 +33843,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.77511585986068</v>
+        <v>1.805481076324006</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.401470058847138</v>
@@ -34130,7 +33932,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.769853024221949</v>
+        <v>1.805983664713588</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.329015853834055</v>
@@ -34219,7 +34021,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.781288128326107</v>
+        <v>1.818894945467056</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.38555781856816</v>
@@ -34308,7 +34110,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.777657922666905</v>
+        <v>1.812390952044175</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.319306046909675</v>
@@ -34397,7 +34199,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.76561334973064</v>
+        <v>1.801040940699903</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.311059199799459</v>
@@ -34486,7 +34288,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.773227252094957</v>
+        <v>1.807704300859585</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.365402754230464</v>
@@ -34575,7 +34377,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.771474427008697</v>
+        <v>1.806138871646013</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.361193647342069</v>
@@ -34664,7 +34466,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.778825655211134</v>
+        <v>1.812860401417987</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.297711917143024</v>
@@ -34753,7 +34555,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.77656967032786</v>
+        <v>1.804693303571143</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.37874662406852</v>
@@ -34842,7 +34644,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.794241001790728</v>
+        <v>1.817437396163492</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.227407989941163</v>
@@ -34931,7 +34733,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.793059058436985</v>
+        <v>1.807408625337365</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.259527070740222</v>
@@ -35020,7 +34822,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.793307345746731</v>
+        <v>1.795550170030142</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.249661444688754</v>
@@ -35109,7 +34911,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.788037671213271</v>
+        <v>1.787651970414181</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.261179207200547</v>
@@ -35198,7 +35000,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.791819012834474</v>
+        <v>1.780939922548625</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.245777573566342</v>
@@ -35287,7 +35089,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.871094860506365</v>
+        <v>1.846861146909431</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.724984258251796</v>
@@ -35376,7 +35178,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.914615729229288</v>
+        <v>1.873828847178103</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.991212165012663</v>
@@ -35465,7 +35267,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.923834057991884</v>
+        <v>1.876471362526682</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.00976295461393</v>
@@ -35554,7 +35356,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.923749623846245</v>
+        <v>1.868899937399412</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.482860640507768</v>
@@ -35643,7 +35445,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.920174583040281</v>
+        <v>1.865183739743032</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.535534693030633</v>
@@ -35732,7 +35534,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.924151688738104</v>
+        <v>1.869970560738478</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.923856639880735</v>
@@ -35821,7 +35623,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.921247948391624</v>
+        <v>1.871828355108968</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.877222937000362</v>
@@ -35910,7 +35712,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.917971865825185</v>
+        <v>1.868942500040797</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.45468765709636</v>
@@ -35999,7 +35801,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.914701818721279</v>
+        <v>1.86225005867925</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.705309467817422</v>
@@ -36088,7 +35890,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.905954042370357</v>
+        <v>1.856175986474083</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.490306954651086</v>
@@ -36177,7 +35979,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.906464146310371</v>
+        <v>1.855988674507479</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.746405527651079</v>
@@ -36266,7 +36068,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.904232650731456</v>
+        <v>1.852781173578847</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.417792533057117</v>
@@ -36355,7 +36157,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.895704301870967</v>
+        <v>1.852175496380105</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.64528963155461</v>
@@ -36444,7 +36246,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.898225526437809</v>
+        <v>1.855347758458291</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.290965613940367</v>
@@ -36730,7 +36532,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.461828381179441</v>
+        <v>1.456468842214365</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.893882008542516</v>
@@ -36819,7 +36621,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.454221488714261</v>
+        <v>1.456746428421248</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.655372316978227</v>
@@ -36908,7 +36710,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.453837038961996</v>
+        <v>1.458415753217657</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.695030491508495</v>
@@ -36997,7 +36799,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.464955793052742</v>
+        <v>1.472629991069818</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.896517046478934</v>
@@ -37086,7 +36888,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.439206575408441</v>
+        <v>1.438733024089604</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.555545559699714</v>
@@ -37175,7 +36977,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.423145831723381</v>
+        <v>1.420742237483025</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.55057292833928</v>
@@ -37264,7 +37066,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.399864622376452</v>
+        <v>1.387553500173254</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.617938508609909</v>
@@ -37353,7 +37155,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.386162906716677</v>
+        <v>1.375253453867951</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.704598613638603</v>
@@ -37442,7 +37244,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.378361379609765</v>
+        <v>1.372699977709425</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.539165336462708</v>
@@ -37531,7 +37333,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.401189967247699</v>
+        <v>1.396968798652746</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.295545144753697</v>
@@ -37620,7 +37422,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.401900270950222</v>
+        <v>1.399732067756936</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.45623023452706</v>
@@ -37709,7 +37511,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.418772188014665</v>
+        <v>1.416715179247243</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.526633892470699</v>
@@ -37798,7 +37600,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.404899465299549</v>
+        <v>1.399275551417508</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.299980011483845</v>
@@ -37887,7 +37689,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.406985309180404</v>
+        <v>1.403229244579144</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.359549635422247</v>
@@ -37976,7 +37778,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.418151327810888</v>
+        <v>1.418299710928322</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.289268761503951</v>
@@ -38065,7 +37867,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.419669478911811</v>
+        <v>1.420825287442426</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.192607467915537</v>
@@ -38154,7 +37956,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.423814270115395</v>
+        <v>1.422311202998823</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.387482389676542</v>
@@ -38243,7 +38045,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.424615487802696</v>
+        <v>1.425162009795039</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.253114755322021</v>
@@ -38332,7 +38134,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.421766813449593</v>
+        <v>1.419051559345226</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.257055910204797</v>
@@ -38421,7 +38223,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.446620878211055</v>
+        <v>1.441604289404107</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.088911029534485</v>
@@ -38510,7 +38312,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.463362359850496</v>
+        <v>1.468054512832368</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.204268182523577</v>
@@ -38599,7 +38401,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.488817042405033</v>
+        <v>1.507155044552807</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.203958942787018</v>
@@ -38688,7 +38490,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.530623282934232</v>
+        <v>1.537887687190913</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.069323484238356</v>
@@ -38777,7 +38579,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.523976640318216</v>
+        <v>1.53679251186156</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.169257535934373</v>
@@ -38866,7 +38668,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.524118179870972</v>
+        <v>1.530662317082209</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.122059431992769</v>
@@ -38955,7 +38757,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.520785884017146</v>
+        <v>1.529173904675133</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.161738602812421</v>
@@ -39044,7 +38846,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.530151781887398</v>
+        <v>1.533288731221599</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.19540583375912</v>
@@ -39133,7 +38935,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.55657765656668</v>
+        <v>1.562349032828873</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.382494670033491</v>
@@ -39222,7 +39024,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.539493178515458</v>
+        <v>1.541489404847352</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.311559352773012</v>
@@ -39311,7 +39113,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.537365540128475</v>
+        <v>1.542283765330968</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.419341680068757</v>
@@ -39400,7 +39202,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.540148207036336</v>
+        <v>1.538001910605017</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.336382774001846</v>
@@ -39489,7 +39291,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.541933618743062</v>
+        <v>1.540251815061983</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.367953090144868</v>
@@ -39578,7 +39380,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.539629382946542</v>
+        <v>1.535601830509883</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.354797681276981</v>
@@ -39667,7 +39469,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.55235816134801</v>
+        <v>1.53866090883961</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.136805250839037</v>
@@ -39756,7 +39558,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.54263518111723</v>
+        <v>1.543947519599237</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.366010760463765</v>
@@ -39845,7 +39647,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.554068309949958</v>
+        <v>1.556257888644516</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.371089464561646</v>
@@ -39934,7 +39736,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.545711944743128</v>
+        <v>1.546263619345155</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.390985658001072</v>
@@ -40023,7 +39825,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.531834000875119</v>
+        <v>1.532086002904888</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.487277876994401</v>
@@ -40112,7 +39914,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.52904002985843</v>
+        <v>1.522365571926517</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.568859499952825</v>
@@ -40201,7 +40003,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.535218490512241</v>
+        <v>1.523344290804837</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.450908073688731</v>
@@ -40290,7 +40092,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.53123430571479</v>
+        <v>1.512193705059815</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.575788217974252</v>
@@ -40379,7 +40181,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.495679754820045</v>
+        <v>1.486003156437192</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.48802482249145</v>
@@ -40468,7 +40270,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.487651739685353</v>
+        <v>1.479230886869409</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.611305234968479</v>
@@ -40557,7 +40359,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.497847766162468</v>
+        <v>1.486010780751131</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.462202731040882</v>
@@ -40646,7 +40448,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.482680944655451</v>
+        <v>1.473544080700174</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.637134116289405</v>
@@ -40735,7 +40537,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.459807681894684</v>
+        <v>1.452883832002903</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.683219441198736</v>
@@ -40824,7 +40626,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.440125098400145</v>
+        <v>1.428305242318343</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.233474179918447</v>
@@ -40913,7 +40715,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.264555235561319</v>
+        <v>1.254665760921581</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.422520952805459</v>
@@ -41002,7 +40804,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.192677842351032</v>
+        <v>1.178305090351624</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.480619842764708</v>
@@ -41091,7 +40893,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.16557062395825</v>
+        <v>1.156580232930598</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.490272777482634</v>
@@ -41180,7 +40982,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.163566134108968</v>
+        <v>1.154282453135682</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.49452552783318</v>
@@ -41269,7 +41071,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.162696481799875</v>
+        <v>1.154075828689652</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.488980986003717</v>
@@ -41358,7 +41160,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.162289765771055</v>
+        <v>1.1538565680534</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.486014990612551</v>
@@ -41447,7 +41249,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.161006607886763</v>
+        <v>1.15380840638721</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.485737921065763</v>
@@ -41536,7 +41338,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.156765926435245</v>
+        <v>1.149229477450835</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.483806793004023</v>
@@ -41625,7 +41427,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.157342554856502</v>
+        <v>1.149329554520928</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.490045483119808</v>
@@ -41714,7 +41516,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.157223072638002</v>
+        <v>1.14980392856191</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.48196061250633</v>
@@ -41803,7 +41605,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.157236872938942</v>
+        <v>1.149490861616181</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.482480752574322</v>
@@ -41892,7 +41694,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.15518437311517</v>
+        <v>1.147711641693876</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.483556216890798</v>
@@ -41981,7 +41783,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.157279580160167</v>
+        <v>1.148549992075757</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.471118816492701</v>
@@ -42070,7 +41872,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.156971371484679</v>
+        <v>1.148635956204833</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.478834710768476</v>
@@ -42159,7 +41961,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.16301131864146</v>
+        <v>1.153857277074166</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.476349811503749</v>
@@ -42248,7 +42050,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.227341649602455</v>
+        <v>1.229786519384968</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.364868132551506</v>
@@ -42337,7 +42139,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.396139895803335</v>
+        <v>1.398805512039005</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.620510713978817</v>
@@ -42426,7 +42228,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.497402674347545</v>
+        <v>1.492951504689952</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.448741963061764</v>
@@ -42515,7 +42317,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.508359735381112</v>
+        <v>1.505083752578194</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.51255023397577</v>
@@ -42604,7 +42406,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.521904174043097</v>
+        <v>1.516790119036577</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.504202118130142</v>
@@ -42693,7 +42495,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.521761720572039</v>
+        <v>1.516010356466328</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.75002931131288</v>
@@ -42782,7 +42584,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.537043477361495</v>
+        <v>1.527360150814364</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.575870576654196</v>
@@ -42871,7 +42673,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.557179763001458</v>
+        <v>1.551692982624373</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.594573539404758</v>
@@ -42960,7 +42762,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.567349218989605</v>
+        <v>1.558500253146455</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.008572681153639</v>
@@ -43049,7 +42851,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.559179143200289</v>
+        <v>1.553348357996613</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.860882425276252</v>
@@ -43138,7 +42940,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.555672737340987</v>
+        <v>1.549442733668857</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.645511537446841</v>
@@ -43227,7 +43029,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.580702287976006</v>
+        <v>1.567434556460049</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.5943937174789</v>
@@ -43316,7 +43118,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.574004359445477</v>
+        <v>1.564358728175676</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.740147920858501</v>
@@ -43405,7 +43207,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.57853252208089</v>
+        <v>1.573843763589999</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.721479677526566</v>
@@ -43691,7 +43493,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.797924504288582</v>
+        <v>1.831893828052624</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.992786693297181</v>
@@ -43780,7 +43582,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.781004821714883</v>
+        <v>1.815552845885658</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.157130007477286</v>
@@ -43869,7 +43671,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.774097002057584</v>
+        <v>1.807930073315859</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.87626127887026</v>
@@ -43958,7 +43760,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.791707289020202</v>
+        <v>1.828509346913938</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.202405474182791</v>
@@ -44047,7 +43849,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.762298622660541</v>
+        <v>1.804312850750418</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.052656599868243</v>
@@ -44136,7 +43938,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.772096127804742</v>
+        <v>1.812125993918551</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.147139371725129</v>
@@ -44225,7 +44027,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.777530892420566</v>
+        <v>1.817837898723398</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.807300029122177</v>
@@ -44314,7 +44116,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.74998289576208</v>
+        <v>1.796053730690173</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.99453925077409</v>
@@ -44403,7 +44205,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.752670828904282</v>
+        <v>1.806164809703376</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.889276204205315</v>
@@ -44492,7 +44294,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.767495480758559</v>
+        <v>1.823334722547949</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.404125914129371</v>
@@ -44581,7 +44383,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.771709614610347</v>
+        <v>1.830734103066406</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.216266805728623</v>
@@ -44670,7 +44472,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.750601962869051</v>
+        <v>1.811757140734709</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.864613012563488</v>
@@ -44759,7 +44561,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.772708276084269</v>
+        <v>1.832904975635151</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.443984112059651</v>
@@ -44848,7 +44650,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.775798992683916</v>
+        <v>1.838822270724054</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.170597949877767</v>
@@ -44937,7 +44739,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.765862557998418</v>
+        <v>1.826962813831877</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.035889251633331</v>
@@ -45026,7 +44828,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.764684719405757</v>
+        <v>1.825642003045469</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.996930526479181</v>
@@ -45115,7 +44917,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.776084778941936</v>
+        <v>1.835502446282256</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.441484113431551</v>
@@ -45204,7 +45006,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.796089987900524</v>
+        <v>1.851464617268937</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.185720427765457</v>
@@ -45293,7 +45095,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.786076791321211</v>
+        <v>1.832944061922405</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.357137893697957</v>
@@ -45382,7 +45184,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.802766787647299</v>
+        <v>1.854468077319878</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.253494469700514</v>
@@ -45471,7 +45273,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.825476961136521</v>
+        <v>1.874811056611372</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.915080645251614</v>
@@ -45560,7 +45362,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.798339692382964</v>
+        <v>1.849111181187042</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.960009252744473</v>
@@ -45649,7 +45451,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.825744442864977</v>
+        <v>1.869412687951547</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.95100853096692</v>
@@ -45738,7 +45540,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.80294670700889</v>
+        <v>1.8531251209919</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.071877426941358</v>
@@ -45827,7 +45629,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.81439323845524</v>
+        <v>1.853510320670998</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.914691008866527</v>
@@ -45916,7 +45718,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.789171851906272</v>
+        <v>1.834331491535093</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.817123313007911</v>
@@ -46005,7 +45807,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.81781909832307</v>
+        <v>1.858388281796823</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.009690380973506</v>
@@ -46094,7 +45896,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.815721139544171</v>
+        <v>1.852605392543344</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.839221984588529</v>
@@ -46183,7 +45985,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.795847381827375</v>
+        <v>1.830953301886076</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.766450822562859</v>
@@ -46272,7 +46074,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.822147524878063</v>
+        <v>1.848520822102449</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.851140192836442</v>
@@ -46361,7 +46163,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.811554482962486</v>
+        <v>1.834801293153574</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.838623104595678</v>
@@ -46450,7 +46252,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.814501647652831</v>
+        <v>1.835728360248322</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.84873647441546</v>
@@ -46539,7 +46341,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.81666621221271</v>
+        <v>1.83637142194881</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.897092295242828</v>
@@ -46628,7 +46430,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.84265160372696</v>
+        <v>1.861179271992467</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.930043077997095</v>
@@ -46717,7 +46519,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.809849829545772</v>
+        <v>1.827893642988259</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.791907145266618</v>
@@ -46806,7 +46608,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.799469900703658</v>
+        <v>1.816502357005351</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.562745583433574</v>
@@ -46895,7 +46697,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.806086066500912</v>
+        <v>1.822297659827699</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.793433497869821</v>
@@ -46984,7 +46786,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.828053659692171</v>
+        <v>1.839774406869479</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.262256390605099</v>
@@ -47073,7 +46875,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.805974957202972</v>
+        <v>1.821467815075901</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.815074791177464</v>
@@ -47162,7 +46964,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.829666057357502</v>
+        <v>1.83981582477794</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.81205432835652</v>
@@ -47251,7 +47053,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.820934167692811</v>
+        <v>1.830119867663472</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.832787656985765</v>
@@ -47340,7 +47142,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.818745980343268</v>
+        <v>1.83204629445428</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.908553655513607</v>
@@ -47429,7 +47231,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.76321086345915</v>
+        <v>1.788291738457727</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.857872275231554</v>
@@ -47518,7 +47320,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.772419645315628</v>
+        <v>1.798069244714218</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.077401363089291</v>
@@ -47607,7 +47409,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.766070681639006</v>
+        <v>1.803109865839556</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.956625135587437</v>
@@ -47696,7 +47498,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.773458466705373</v>
+        <v>1.808099996149924</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.103304487809313</v>
@@ -47785,7 +47587,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.770107932347728</v>
+        <v>1.806990504024814</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.005329842573194</v>
@@ -47874,7 +47676,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.744971905939173</v>
+        <v>1.780064196729344</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.753438414219053</v>
@@ -47963,7 +47765,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.727690200723982</v>
+        <v>1.761711020297537</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.777274844412554</v>
@@ -48052,7 +47854,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.72584749350148</v>
+        <v>1.762838906401098</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.749236316172878</v>
@@ -48141,7 +47943,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.750443213305236</v>
+        <v>1.790144356343055</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.721143524846076</v>
@@ -48230,7 +48032,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.746042606397202</v>
+        <v>1.784503145279981</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.742228156151993</v>
@@ -48319,7 +48121,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.720339240717962</v>
+        <v>1.759485789474601</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.688809061746493</v>
@@ -48408,7 +48210,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.742011679944632</v>
+        <v>1.773258220703345</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.692707608898607</v>
@@ -48497,7 +48299,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.736644510109983</v>
+        <v>1.769293521711595</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.734055369709707</v>
@@ -48586,7 +48388,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.75165911247573</v>
+        <v>1.784004595584526</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.604879102863125</v>
@@ -48675,7 +48477,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.748305416988847</v>
+        <v>1.775568936657467</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.810978005301989</v>
@@ -48764,7 +48566,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.795921552118908</v>
+        <v>1.815884986363182</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.813768931659652</v>
@@ -48853,7 +48655,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.807077765284091</v>
+        <v>1.822537390765972</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.782383618651763</v>
@@ -48942,7 +48744,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.804199074562536</v>
+        <v>1.808549989569054</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.630311164136726</v>
@@ -49031,7 +48833,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.803136252595345</v>
+        <v>1.810154619063263</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.67226429434529</v>
@@ -49120,7 +48922,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.803750312694211</v>
+        <v>1.802631200651031</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.620773290486835</v>
@@ -49209,7 +49011,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.843894581476344</v>
+        <v>1.849387885774789</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.734611403218577</v>
@@ -49298,7 +49100,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.869166516681655</v>
+        <v>1.867625226831112</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.225832265817858</v>
@@ -49387,7 +49189,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.891072404240411</v>
+        <v>1.882200969013864</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.77282095390805</v>
@@ -49476,7 +49278,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.891259818266934</v>
+        <v>1.874366694306475</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.219012098052773</v>
@@ -49565,7 +49367,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.889135275483613</v>
+        <v>1.869198462667694</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.253911904707349</v>
@@ -49654,7 +49456,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.909268513338914</v>
+        <v>1.886069630456925</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.355945944074666</v>
@@ -49743,7 +49545,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.908103407117356</v>
+        <v>1.887495414762886</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.006076163542056</v>
@@ -49832,7 +49634,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.907525044990661</v>
+        <v>1.885199746601822</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.156593096358272</v>
@@ -49921,7 +49723,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.900223935856702</v>
+        <v>1.87362281273514</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.432880120195541</v>
@@ -50010,7 +49812,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.85902987668729</v>
+        <v>1.841120862442504</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.410926710289827</v>
@@ -50099,7 +49901,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.861354357849262</v>
+        <v>1.845436224928705</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.295122190367008</v>
@@ -50188,7 +49990,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.859258491745634</v>
+        <v>1.839935459910272</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.393188791544008</v>
@@ -50277,7 +50079,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.855736840693483</v>
+        <v>1.841783145599404</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.08657664715157</v>
@@ -50366,7 +50168,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.856290957132239</v>
+        <v>1.841414385410496</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.244224174061687</v>
